--- a/database/industries/kashi/kehafez/product/yearly_seprated.xlsx
+++ b/database/industries/kashi/kehafez/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A828B-F167-4B4D-B892-E0637788D6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C023F4D-3888-41F2-8E36-577F6D6D79E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -658,12 +658,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -673,7 +673,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -707,7 +707,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -741,7 +741,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -773,7 +773,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -833,7 +833,7 @@
         <v>412477</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1619524</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -881,7 +881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -929,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1128332</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3160333</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>692820</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>671144</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1408074</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>4568407</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1287,7 +1287,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1297,7 +1297,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1307,7 +1307,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1339,7 +1339,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>296014</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2413497</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>17</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>850002</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>3559513</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>393224</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>73471</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>452155</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>918850</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>4478363</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1867,7 +1867,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1877,7 +1877,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>717650</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1490251</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>753326</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>37</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>567570</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>15</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1665631</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>673708</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2289,7 +2289,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2299,7 +2299,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>39</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>-209365</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>-972729</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>16</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>-616298</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>40</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>-1798392</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>-351663</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>-30056</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>16</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>18</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>20</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>-366580</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>42</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>-748299</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>43</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="18" t="s">
         <v>26</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
         <v>27</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>-2546691</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2849,7 +2849,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2859,7 +2859,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2869,7 +2869,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>45</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2901,7 +2901,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>46</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>11</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>14</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>86649</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>15</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>1440768</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>19</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>233704</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="s">
         <v>47</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>1761121</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>48</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>14</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>41561</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>16</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>18</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>20</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>85575</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>49</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>170551</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="16" t="s">
         <v>50</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
         <v>51</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="18" t="s">
         <v>28</v>
       </c>
